--- a/Warehousing.xlsx
+++ b/Warehousing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2bff73b0ba30a6b9/Dokumen/College Files/OR/OR8/OR8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_EBAB050D2A7965DAE6619A9E43FAC538151DB11C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9BE2FC9-A384-4EB9-8984-5758480CF1F6}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_EBAB050D2A7965DAE6619A9E43FAC538151DB11C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39FAE789-73E1-4A46-9F8B-01A99C64D656}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="859" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="859" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Handling Out" sheetId="19" r:id="rId1"/>
@@ -78,9 +78,6 @@
     <t>TX</t>
   </si>
   <si>
-    <t>MO</t>
-  </si>
-  <si>
     <t>CA</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>skiprope_box</t>
+  </si>
+  <si>
+    <t>KS</t>
   </si>
 </sst>
 </file>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -542,7 +542,7 @@
         <v>13</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -686,8 +686,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
+      <c r="A6" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B6">
         <v>3.8</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>5.65</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>3.5</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>5.5</v>
@@ -910,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -971,8 +971,8 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
+      <c r="A7" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B7" s="4">
         <v>80</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="4">
         <v>200</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="4">
         <v>100</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4">
         <v>215</v>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="4">
         <v>50</v>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="4">
         <v>190</v>
@@ -1084,6 +1084,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010013B620F01982514694878B55267266B0" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c024e8050b9bf00871c28df4e0c2326c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="882bdec5-c3ce-4705-9a84-58ed8ad203ea" xmlns:ns3="c6fe3531-949f-4c96-ac1d-b793c48e3f25" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b87bd66fdc6a8cc420d7eafee76624a9" ns2:_="" ns3:_="">
     <xsd:import namespace="882bdec5-c3ce-4705-9a84-58ed8ad203ea"/>
@@ -1298,22 +1313,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EE63CD3-3B6C-4AD1-BD8A-6BE90C85F7D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26FD0F61-9947-47A7-B1A2-A7389484EA83}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3DF9751-7627-45C8-9B3D-7FBA5F299D0C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1330,21 +1347,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26FD0F61-9947-47A7-B1A2-A7389484EA83}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EE63CD3-3B6C-4AD1-BD8A-6BE90C85F7D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Warehousing.xlsx
+++ b/Warehousing.xlsx
@@ -1,23 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2bff73b0ba30a6b9/Dokumen/College Files/OR/OR8/OR8/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="43" documentId="11_86A482CB4D25D5E63E17B45005DBB2D6CD2E0BB1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{277157D9-C83C-42F6-BC56-399DEFF66687}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Storage"/>
-    <sheet r:id="rId2" sheetId="2" name="Handling Out"/>
-    <sheet r:id="rId3" sheetId="3" name="Handling In"/>
-    <sheet r:id="rId4" sheetId="4" name="__AIMMS_SETUP__"/>
+    <sheet name="Storage" sheetId="1" r:id="rId1"/>
+    <sheet name="Handling Out" sheetId="2" r:id="rId2"/>
+    <sheet name="Handling In" sheetId="3" r:id="rId3"/>
+    <sheet name="__AIMMS_SETUP__" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>Initialization</t>
   </si>
@@ -98,14 +117,32 @@
   </si>
   <si>
     <t>storage_costs_m3_month</t>
+  </si>
+  <si>
+    <t>blender</t>
+  </si>
+  <si>
+    <t>swing</t>
+  </si>
+  <si>
+    <t>scooter</t>
+  </si>
+  <si>
+    <t>chair</t>
+  </si>
+  <si>
+    <t>rope</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="$#,##0_);($#,##0)"/>
+    <numFmt numFmtId="164" formatCode="\$#,##0_);\(\$#,##0\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -134,7 +171,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,11 +180,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFc0c0c0"/>
+        <fgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -170,7 +212,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -203,88 +245,97 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -295,10 +346,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -336,71 +387,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -428,7 +479,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -451,11 +502,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -464,13 +515,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -480,7 +531,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -489,7 +540,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -498,7 +549,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -506,10 +557,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -574,7 +625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -582,97 +633,97 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="20" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="21" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="15.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="27.75">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="11">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:2" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="11">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:2" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="11">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:2" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="11">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:2" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="11">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:2" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="11">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:2" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="11">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:2" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="11">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:2" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="11">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:2" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="11">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:2" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>29</v>
       </c>
     </row>
@@ -682,411 +733,402 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="13.54296875" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="13">
         <v>5.25</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="13">
         <v>5.25</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="13">
         <v>5.25</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="13">
         <v>5.25</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="13">
         <v>5.25</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="13">
         <v>0.31</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="13">
         <v>0.9</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="13">
         <v>0.9</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="13">
         <v>0.31</v>
       </c>
-      <c r="K2" s="15">
+      <c r="K2" s="13">
         <v>0.31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="13">
         <v>5.65</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="13">
         <v>5.65</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="13">
         <v>5.65</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="13">
         <v>5.65</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="13">
         <v>5.65</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="13">
         <v>0.33</v>
       </c>
-      <c r="H3" s="3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="15">
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="13">
         <v>0.33</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="13">
         <v>0.33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="13">
         <v>5.25</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <v>5.25</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="13">
         <v>5.25</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="13">
         <v>5.25</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="13">
         <v>5.25</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="13">
         <v>0.31</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="13">
         <v>0.9</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="13">
         <v>0.9</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="13">
         <v>0.31</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="13">
         <v>0.31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="13">
         <v>4.5</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <v>4.5</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="13">
         <v>4.5</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="13">
         <v>4.5</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="13">
         <v>4.5</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="13">
         <v>0.3</v>
       </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="15">
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="13">
         <v>0.3</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="13">
         <v>0.3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="13">
         <v>3.8</v>
       </c>
-      <c r="C6" s="15">
-        <v>4.6</v>
-      </c>
-      <c r="D6" s="15">
+      <c r="C6" s="13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D6" s="13">
         <v>4.7</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="13">
         <v>4.3</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="13">
         <v>4.5</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="13">
         <v>0.35</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="13">
         <v>0.9</v>
       </c>
-      <c r="I6" s="15">
-        <v>1.1</v>
-      </c>
-      <c r="J6" s="15">
+      <c r="I6" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J6" s="13">
         <v>0.4</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="13">
         <v>0.2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="13">
         <v>5.65</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="13">
         <v>5.65</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="13">
         <v>5.65</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="13">
         <v>5.65</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="13">
         <v>5.65</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="13">
         <v>0.33</v>
       </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="15">
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="13">
         <v>0.33</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="13">
         <v>0.33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <v>3.5</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <v>5.7</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="13">
         <v>6.5</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="13">
         <v>5.7</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="13">
         <v>4.5</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="13">
         <v>0.25</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="13">
         <v>1.05</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="13">
         <v>1.2</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="13">
         <v>0.23</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="13">
         <v>0.4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>6</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>6</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>6</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>6</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="13">
         <v>0.35</v>
       </c>
-      <c r="H9" s="15">
-        <v>1.1</v>
-      </c>
-      <c r="I9" s="15">
-        <v>1.1</v>
-      </c>
-      <c r="J9" s="15">
+      <c r="H9" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I9" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J9" s="13">
         <v>0.35</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="13">
         <v>0.35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>6</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>6</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>6</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="13">
         <v>0.35</v>
       </c>
-      <c r="H10" s="15">
-        <v>1.1</v>
-      </c>
-      <c r="I10" s="15">
-        <v>1.1</v>
-      </c>
-      <c r="J10" s="15">
+      <c r="H10" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I10" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J10" s="13">
         <v>0.35</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="13">
         <v>0.35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="13">
         <v>5.5</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="13">
         <v>5.5</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="13">
         <v>5.5</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="13">
         <v>5.5</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="13">
         <v>5.5</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="13">
         <v>0.32</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="13">
         <v>0.95</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="13">
         <v>0.95</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="13">
         <v>0.32</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="14">
         <v>0.32</v>
       </c>
     </row>
@@ -1096,106 +1138,317 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="5" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="9" t="s">
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>6</v>
       </c>
-      <c r="B2" s="10">
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <f>SUM(D2:H2)</f>
+        <v>20</v>
+      </c>
+      <c r="J2" s="19">
+        <f>I2*B2</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8">
+        <v>180</v>
+      </c>
+      <c r="D3" s="9">
+        <v>21</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
+        <v>19</v>
+      </c>
+      <c r="H3" s="9">
+        <v>59</v>
+      </c>
+      <c r="I3">
+        <f>SUM(D3:H3)</f>
+        <v>101</v>
+      </c>
+      <c r="J3" s="19">
+        <f t="shared" ref="J3:J11" si="0">I3*B3</f>
+        <v>18180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8">
+        <v>60</v>
+      </c>
+      <c r="D4" s="9">
+        <v>15</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
+        <v>14</v>
+      </c>
+      <c r="H4" s="9">
+        <v>41</v>
+      </c>
+      <c r="I4">
+        <f>SUM(D4:H4)</f>
+        <v>72</v>
+      </c>
+      <c r="J4" s="19">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8">
+        <v>80</v>
+      </c>
+      <c r="I5">
+        <f>SUM(D5:H5)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8">
+        <v>100</v>
+      </c>
+      <c r="D6" s="9">
+        <v>17</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
+        <v>15</v>
+      </c>
+      <c r="H6" s="9">
+        <v>47</v>
+      </c>
+      <c r="I6">
+        <f>SUM(D6:H6)</f>
+        <v>81</v>
+      </c>
+      <c r="J6" s="19">
+        <f t="shared" si="0"/>
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
         <v>200</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="11">
-      <c r="A3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="10">
-        <v>40</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="11">
-      <c r="A4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="10">
-        <v>180</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="11">
-      <c r="A5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="10">
-        <v>60</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="11">
-      <c r="A6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="10">
-        <v>80</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="11">
-      <c r="A7" s="9" t="s">
+      <c r="D7" s="9">
+        <v>17</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9">
+        <v>16</v>
+      </c>
+      <c r="H7" s="9">
+        <v>49</v>
+      </c>
+      <c r="I7">
+        <f>SUM(D7:H7)</f>
+        <v>84</v>
+      </c>
+      <c r="J7" s="19">
+        <f t="shared" si="0"/>
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="8">
+        <v>215</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:I11" si="1">SUM(D8:H8)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8">
+        <v>50</v>
+      </c>
+      <c r="D9" s="9">
+        <v>14</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9">
+        <v>13</v>
+      </c>
+      <c r="H9" s="9">
+        <v>39</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="J9" s="19">
+        <f t="shared" si="0"/>
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B10" s="8">
         <v>200</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="11">
-      <c r="A8" s="9" t="s">
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8">
+        <v>190</v>
+      </c>
+      <c r="D11" s="9">
+        <v>4</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9">
+        <v>4</v>
+      </c>
+      <c r="H11" s="9">
         <v>12</v>
       </c>
-      <c r="B8" s="10">
-        <v>100</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="11">
-      <c r="A9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="10">
-        <v>215</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="11">
-      <c r="A10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="10">
-        <v>50</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="11">
-      <c r="A11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="10">
-        <v>190</v>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="J11" s="19">
+        <f t="shared" si="0"/>
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J12" s="20">
+        <f>SUM(J2:J11)</f>
+        <v>55780</v>
       </c>
     </row>
   </sheetData>
@@ -1204,7 +1457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1212,102 +1465,85 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2">
         <v>0</v>
       </c>
-      <c r="E1" s="3">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3">
+      <c r="E1" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="3">
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>

--- a/Warehousing.xlsx
+++ b/Warehousing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2bff73b0ba30a6b9/Dokumen/College Files/OR/OR8/OR8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_86A482CB4D25D5E63E17B45005DBB2D6CD2E0BB1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{277157D9-C83C-42F6-BC56-399DEFF66687}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="11_86A482CB4D25D5E63E17B45005DBB2D6CD2E0BB1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89456A02-E70A-4BF3-92CE-F5006306CE31}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Storage" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>Initialization</t>
   </si>
@@ -117,24 +117,6 @@
   </si>
   <si>
     <t>storage_costs_m3_month</t>
-  </si>
-  <si>
-    <t>blender</t>
-  </si>
-  <si>
-    <t>swing</t>
-  </si>
-  <si>
-    <t>scooter</t>
-  </si>
-  <si>
-    <t>chair</t>
-  </si>
-  <si>
-    <t>rope</t>
-  </si>
-  <si>
-    <t>total</t>
   </si>
 </sst>
 </file>
@@ -171,7 +153,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,13 +165,8 @@
         <fgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -249,22 +226,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -317,12 +283,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -339,6 +299,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -739,7 +703,7 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1142,10 +1106,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J2:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1154,302 +1118,102 @@
     <col min="2" max="2" width="14.453125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="8">
         <v>40</v>
       </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-      <c r="I2">
-        <f>SUM(D2:H2)</f>
-        <v>20</v>
-      </c>
-      <c r="J2" s="19">
-        <f>I2*B2</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:9" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="8">
         <v>180</v>
       </c>
-      <c r="D3" s="9">
-        <v>21</v>
-      </c>
-      <c r="E3" s="9">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9">
-        <v>1</v>
-      </c>
-      <c r="G3" s="9">
-        <v>19</v>
-      </c>
-      <c r="H3" s="9">
-        <v>59</v>
-      </c>
-      <c r="I3">
-        <f>SUM(D3:H3)</f>
-        <v>101</v>
-      </c>
-      <c r="J3" s="19">
-        <f t="shared" ref="J3:J11" si="0">I3*B3</f>
-        <v>18180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I3"/>
+    </row>
+    <row r="4" spans="1:9" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="8">
         <v>60</v>
       </c>
-      <c r="D4" s="9">
-        <v>15</v>
-      </c>
-      <c r="E4" s="9">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9">
-        <v>1</v>
-      </c>
-      <c r="G4" s="9">
-        <v>14</v>
-      </c>
-      <c r="H4" s="9">
-        <v>41</v>
-      </c>
-      <c r="I4">
-        <f>SUM(D4:H4)</f>
-        <v>72</v>
-      </c>
-      <c r="J4" s="19">
-        <f t="shared" si="0"/>
-        <v>4320</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I4"/>
+    </row>
+    <row r="5" spans="1:9" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="8">
         <v>80</v>
       </c>
-      <c r="I5">
-        <f>SUM(D5:H5)</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:9" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="8">
         <v>100</v>
       </c>
-      <c r="D6" s="9">
-        <v>17</v>
-      </c>
-      <c r="E6" s="9">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9">
-        <v>1</v>
-      </c>
-      <c r="G6" s="9">
-        <v>15</v>
-      </c>
-      <c r="H6" s="9">
-        <v>47</v>
-      </c>
-      <c r="I6">
-        <f>SUM(D6:H6)</f>
-        <v>81</v>
-      </c>
-      <c r="J6" s="19">
-        <f t="shared" si="0"/>
-        <v>8100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:9" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="8">
         <v>200</v>
       </c>
-      <c r="D7" s="9">
-        <v>17</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9">
-        <v>16</v>
-      </c>
-      <c r="H7" s="9">
-        <v>49</v>
-      </c>
-      <c r="I7">
-        <f>SUM(D7:H7)</f>
-        <v>84</v>
-      </c>
-      <c r="J7" s="19">
-        <f t="shared" si="0"/>
-        <v>16800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:9" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="8">
         <v>215</v>
       </c>
-      <c r="I8">
-        <f t="shared" ref="I8:I11" si="1">SUM(D8:H8)</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:9" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="8">
         <v>50</v>
       </c>
-      <c r="D9" s="9">
-        <v>14</v>
-      </c>
-      <c r="E9" s="9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9">
-        <v>13</v>
-      </c>
-      <c r="H9" s="9">
-        <v>39</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="J9" s="19">
-        <f t="shared" si="0"/>
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:9" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="8">
         <v>200</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:9" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="8">
         <v>190</v>
       </c>
-      <c r="D11" s="9">
-        <v>4</v>
-      </c>
-      <c r="E11" s="9">
-        <v>1</v>
-      </c>
-      <c r="F11" s="9">
-        <v>1</v>
-      </c>
-      <c r="G11" s="9">
-        <v>4</v>
-      </c>
-      <c r="H11" s="9">
-        <v>12</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="J11" s="19">
-        <f t="shared" si="0"/>
-        <v>4180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="J12" s="20">
-        <f>SUM(J2:J11)</f>
-        <v>55780</v>
-      </c>
+      <c r="I11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
